--- a/biology/Botanique/Rosa_willmottiae/Rosa_willmottiae.xlsx
+++ b/biology/Botanique/Rosa_willmottiae/Rosa_willmottiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa willmottiae est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Gymnocarpae , originaire de Chine occidentale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosa willmottiae est un arbuste épineux haut de 2 mètres, aux tiges arquées. Les feuilles, composées de 5 à 9 folioles, de couleur gris vert, sont très petites, mesurant 2 cm de long, y compris le pétiole[2]. Les fleurs, solitaires,  simples, à cinq pétales de couleur rose lilas, de 3 cm de diamètre, éclosent en juin. Elles donnent de petits fruits, de couleur orange-rouge, lisses, piriformes à subglobuleux, d'environ 1 cm de diamètre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosa willmottiae est un arbuste épineux haut de 2 mètres, aux tiges arquées. Les feuilles, composées de 5 à 9 folioles, de couleur gris vert, sont très petites, mesurant 2 cm de long, y compris le pétiole. Les fleurs, solitaires,  simples, à cinq pétales de couleur rose lilas, de 3 cm de diamètre, éclosent en juin. Elles donnent de petits fruits, de couleur orange-rouge, lisses, piriformes à subglobuleux, d'environ 1 cm de diamètre.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Rosa willmottiae s'étend en Chine, dans les provinces de Gansu, Qinghai, Shaanxi et Sichuan[2].
-L'espèce se rencontre dans les fourrés et les broussailles, sur les pentes ouvertes, le long des fleuves et sur les bords de routes, à des altitudes comprises entre 1 300 et 3 800 mètres[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Rosa willmottiae s'étend en Chine, dans les provinces de Gansu, Qinghai, Shaanxi et Sichuan.
+L'espèce se rencontre dans les fourrés et les broussailles, sur les pentes ouvertes, le long des fleuves et sur les bords de routes, à des altitudes comprises entre 1 300 et 3 800 mètres.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique, « willmottiae » est un hommage à Ellen Willmott, botaniste et horticultrice britannique[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique, « willmottiae » est un hommage à Ellen Willmott, botaniste et horticultrice britannique.
 </t>
         </is>
       </c>
@@ -607,11 +625,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (15 février 2020)[1]
-Rosa willmottiae var. willmottiae
-Liste des variétés
-Selon Tropicos                                           (15 février 2020)[5] (Attention liste brute contenant possiblement des synonymes) :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (15 février 2020)
+Rosa willmottiae var. willmottiae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rosa_willmottiae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rosa_willmottiae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (15 février 2020) (Attention liste brute contenant possiblement des synonymes) :
 Rosa willmottiae var. glandulifera T.T. Yu &amp; T.C. Ku
 Rosa willmottiae var. glandulosa T.T. Yu &amp; T.C. Ku
 Rosa willmottiae var. willmottiae</t>
